--- a/光棍节.xlsx
+++ b/光棍节.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -755,11 +755,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1004807568"/>
-        <c:axId val="-1005550672"/>
+        <c:axId val="-1176637264"/>
+        <c:axId val="-1195822928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1004807568"/>
+        <c:axId val="-1176637264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1005550672"/>
+        <c:crossAx val="-1195822928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -810,7 +810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1005550672"/>
+        <c:axId val="-1195822928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1004807568"/>
+        <c:crossAx val="-1176637264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1033,11 +1033,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-851013600"/>
-        <c:axId val="-914454048"/>
+        <c:axId val="-1173135536"/>
+        <c:axId val="-1173131136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-851013600"/>
+        <c:axId val="-1173135536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-914454048"/>
+        <c:crossAx val="-1173131136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1087,7 +1087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-914454048"/>
+        <c:axId val="-1173131136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,6 +1107,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1137,7 +1138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-851013600"/>
+        <c:crossAx val="-1173135536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1234,3364 +1235,322 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BG$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$366</c:f>
+              <c:f>Sheet1!$BF$2:$BF$84</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="365"/>
-                <c:pt idx="0">
-                  <c:v>40544.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40545.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40546.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40547.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40548.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40549.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40550.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40551.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40552.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40553.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40554.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40555.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40556.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40557.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40558.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40559.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>40560.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>40561.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40562.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40563.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>40564.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>40565.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>40566.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>40567.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40568.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>40569.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>40570.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>40571.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>40572.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>40573.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>40574.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>40575.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>40576.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>40577.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>40578.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>40579.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>40580.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>40581.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40582.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40583.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40584.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>40585.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>40586.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>40587.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>40588.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>40589.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>40590.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>40591.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>40592.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>40593.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>40594.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>40595.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>40596.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>40597.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>40598.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>40599.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>40600.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>40601.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>40602.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>40603.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>40604.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>40605.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>40606.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>40607.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>40608.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>40609.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>40610.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>40611.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>40612.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>40613.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>40614.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>40615.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>40616.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>40617.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>40618.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>40619.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>40620.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>40621.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>40622.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>40623.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>40624.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>40625.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>40626.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>40627.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>40628.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>40629.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>40630.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>40631.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>40632.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>40633.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>40634.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>40635.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>40636.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>40637.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>40638.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>40639.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>40640.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>40641.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>40642.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>40643.0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>40644.0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>40645.0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>40646.0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>40647.0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>40648.0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>40649.0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>40650.0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>40651.0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>40652.0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>40653.0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>40654.0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>40655.0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>40656.0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>40657.0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>40658.0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>40659.0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>40660.0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>40661.0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>40662.0</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>40663.0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>40664.0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>40665.0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>40666.0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>40667.0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>40668.0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>40669.0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>40670.0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>40671.0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>40672.0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>40673.0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>40674.0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>40675.0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>40676.0</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>40677.0</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>40678.0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>40679.0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>40680.0</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>40681.0</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>40682.0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>40683.0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>40684.0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>40685.0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>40686.0</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>40687.0</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>40688.0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>40689.0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>40690.0</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>40691.0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>40692.0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>40693.0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>40694.0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>40695.0</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>40696.0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>40697.0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>40698.0</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>40699.0</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>40700.0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>40701.0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>40702.0</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>40703.0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>40704.0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>40705.0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>40706.0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>40707.0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>40708.0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>40709.0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>40710.0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>40711.0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>40712.0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>40713.0</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>40714.0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>40715.0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>40716.0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>40717.0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>40718.0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>40719.0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>40720.0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>40721.0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>40722.0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>40723.0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>40724.0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>40725.0</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>40726.0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>40727.0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>40728.0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>40729.0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>40730.0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>40731.0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>40732.0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>40733.0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>40734.0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>40735.0</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>40736.0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>40737.0</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>40738.0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>40739.0</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>40740.0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>40741.0</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>40742.0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>40743.0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>40744.0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>40745.0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>40746.0</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>40747.0</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>40748.0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>40749.0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>40750.0</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>40751.0</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>40752.0</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>40753.0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>40754.0</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>40755.0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>40756.0</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>40757.0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>40758.0</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>40759.0</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>40760.0</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>40761.0</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>40762.0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>40763.0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>40764.0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>40765.0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>40766.0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>40767.0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>40768.0</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>40769.0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>40770.0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>40771.0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>40772.0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>40773.0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>40774.0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>40775.0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>40776.0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>40777.0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>40778.0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>40779.0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>40780.0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>40781.0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>40782.0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>40783.0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>40784.0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>40785.0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>40786.0</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>40787.0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>40788.0</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>40789.0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>40790.0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>40791.0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>40792.0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>40793.0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>40794.0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>40795.0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>40796.0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>40797.0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>40798.0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>40799.0</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>40800.0</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>40801.0</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>40802.0</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>40803.0</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>40804.0</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>40805.0</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>40806.0</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>40807.0</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>40808.0</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>40809.0</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>40810.0</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>40811.0</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>40812.0</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>40813.0</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>40814.0</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>40815.0</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>40816.0</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>40817.0</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>40818.0</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>40819.0</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>40820.0</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>40821.0</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>40822.0</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>40823.0</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>40824.0</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>40825.0</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>40826.0</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>40827.0</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>40828.0</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>40829.0</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>40830.0</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>40831.0</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>40832.0</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>40833.0</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>40834.0</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>40835.0</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>40836.0</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>40837.0</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>40838.0</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>40839.0</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>40840.0</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>40841.0</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>40842.0</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>40843.0</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>40844.0</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>40845.0</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>40846.0</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>40847.0</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>40848.0</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>40849.0</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>40850.0</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>40851.0</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>40852.0</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>40853.0</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>40854.0</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>40855.0</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>40856.0</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>40857.0</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>40858.0</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>40859.0</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>40860.0</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>40861.0</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>40862.0</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>40863.0</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>40864.0</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>40865.0</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>40866.0</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>40867.0</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>40868.0</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>40869.0</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>40870.0</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>40871.0</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>40872.0</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>40873.0</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>40874.0</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>40875.0</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>40876.0</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>40877.0</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>40878.0</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>40879.0</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>40880.0</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>40881.0</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>40882.0</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>40883.0</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>40884.0</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>40885.0</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>40886.0</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>40887.0</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>40888.0</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>40889.0</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>40890.0</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>40891.0</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>40892.0</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>40893.0</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>40894.0</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>40895.0</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>40896.0</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>40897.0</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>40898.0</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>40899.0</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>40900.0</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>40901.0</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>40902.0</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>40903.0</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>40904.0</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>40905.0</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>40906.0</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>40907.0</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>40908.0</c:v>
-                </c:pt>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="83"/>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$366</c:f>
+              <c:f>Sheet1!$BG$2:$BG$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="365"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
-                  <c:v>655.0</c:v>
+                  <c:v>542.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>476.0</c:v>
+                  <c:v>526.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>450.0</c:v>
+                  <c:v>488.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>455.0</c:v>
+                  <c:v>470.2333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>460.0</c:v>
+                  <c:v>503.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>445.0</c:v>
+                  <c:v>490.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>417.0</c:v>
+                  <c:v>527.4666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>440.0</c:v>
+                  <c:v>670.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>444.0</c:v>
+                  <c:v>658.9666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>691.0</c:v>
+                  <c:v>2296.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2230.0</c:v>
+                  <c:v>21447.76666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1045.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>550.0</c:v>
+                  <c:v>741.1666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>424.0</c:v>
+                  <c:v>586.7333333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>367.0</c:v>
+                  <c:v>623.7333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>425.0</c:v>
+                  <c:v>604.2333333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>403.0</c:v>
+                  <c:v>595.9333333333332</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>442.0</c:v>
+                  <c:v>511.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>427.0</c:v>
+                  <c:v>431.1333333333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>401.0</c:v>
+                  <c:v>431.1333333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>413.0</c:v>
+                  <c:v>523.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>390.0</c:v>
+                  <c:v>609.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>408.0</c:v>
+                  <c:v>2033.866666666667</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>400.0</c:v>
+                  <c:v>15513.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>425.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>437.0</c:v>
+                  <c:v>537.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>445.0</c:v>
+                  <c:v>359.5333333333334</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>454.0</c:v>
+                  <c:v>316.4333333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>421.0</c:v>
+                  <c:v>438.2666666666666</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>444.0</c:v>
+                  <c:v>347.0333333333334</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>403.0</c:v>
+                  <c:v>385.9</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>418.0</c:v>
+                  <c:v>334.0666666666666</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>399.0</c:v>
+                  <c:v>371.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>446.0</c:v>
+                  <c:v>662.3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>461.0</c:v>
+                  <c:v>583.0666666666667</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>435.0</c:v>
+                  <c:v>2001.6</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>457.0</c:v>
+                  <c:v>12082.53333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>408.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>501.0</c:v>
+                  <c:v>481.4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>527.0</c:v>
+                  <c:v>315.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>554.0</c:v>
+                  <c:v>329.3666666666666</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>754.0</c:v>
+                  <c:v>349.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>806.0</c:v>
+                  <c:v>298.5333333333334</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1336.0</c:v>
+                  <c:v>334.9666666666666</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1564.0</c:v>
+                  <c:v>291.2666666666666</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>752.0</c:v>
+                  <c:v>329.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>599.0</c:v>
+                  <c:v>432.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>519.0</c:v>
+                  <c:v>450.9666666666666</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>449.0</c:v>
+                  <c:v>2014.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>440.0</c:v>
+                  <c:v>12607.46666666667</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>472.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>442.0</c:v>
+                  <c:v>534.3666666666667</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>458.0</c:v>
+                  <c:v>410.9</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>438.0</c:v>
+                  <c:v>359.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>388.0</c:v>
+                  <c:v>405.8</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>427.0</c:v>
+                  <c:v>347.9666666666666</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>469.0</c:v>
+                  <c:v>432.7333333333333</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>440.0</c:v>
+                  <c:v>438.5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>437.0</c:v>
+                  <c:v>453.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>387.0</c:v>
+                  <c:v>666.2666666666666</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>408.0</c:v>
+                  <c:v>602.9333333333332</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>451.0</c:v>
+                  <c:v>1830.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>432.0</c:v>
+                  <c:v>8631.766666666666</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>468.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>493.0</c:v>
+                  <c:v>623.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>740.0</c:v>
+                  <c:v>427.0666666666666</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>957.0</c:v>
+                  <c:v>409.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>549.0</c:v>
+                  <c:v>430.6333333333333</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>495.0</c:v>
+                  <c:v>363.2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>447.0</c:v>
+                  <c:v>429.7666666666666</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>437.0</c:v>
+                  <c:v>474.8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>482.0</c:v>
+                  <c:v>351.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>522.0</c:v>
+                  <c:v>457.9</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>428.0</c:v>
+                  <c:v>483.6</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>426.0</c:v>
+                  <c:v>1305.266666666667</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>427.0</c:v>
+                  <c:v>5714.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>410.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>430.0</c:v>
+                  <c:v>638.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>467.0</c:v>
+                  <c:v>374.2666666666666</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>417.0</c:v>
+                  <c:v>411.9666666666666</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>424.0</c:v>
+                  <c:v>424.4333333333333</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>431.0</c:v>
+                  <c:v>319.4333333333333</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>423.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>452.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>433.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>438.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>434.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>437.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>459.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>460.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>476.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>524.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>481.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>497.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>491.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>472.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>692.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>439.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>427.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>474.0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>423.0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>434.0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>484.0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>476.0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>441.0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>464.0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>630.0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>438.0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>472.0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>482.0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>421.0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>421.0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>439.0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>443.0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>396.0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>431.0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>446.0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>470.0</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>423.0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>457.0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>440.0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>457.0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>480.0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>511.0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>481.0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>539.0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>556.0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>478.0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>514.0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>481.0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>455.0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>467.0</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>454.0</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>470.0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>476.0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>471.0</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>439.0</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>496.0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>591.0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>492.0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>471.0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>522.0</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>513.0</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>463.0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>489.0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>458.0</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>481.0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>530.0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>498.0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>460.0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>610.0</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>536.0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>482.0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>494.0</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>530.0</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>522.0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>522.0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>460.0</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>531.0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>479.0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>493.0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>506.0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>520.0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>486.0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>465.0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>483.0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>519.0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>542.0</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>473.0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>470.0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>423.0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>465.0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>453.0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>460.0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>445.0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>448.0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>439.0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>489.0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>483.0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>487.0</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>485.0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>433.0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>414.0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>494.0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>532.0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>557.0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>488.0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>502.0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>485.0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>470.0</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>477.0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>462.0</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>550.0</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>491.0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>517.0</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>522.0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>491.0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>510.0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>504.0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>586.0</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>527.0</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>509.0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>519.0</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>491.0</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>537.0</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>578.0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>556.0</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>538.0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>645.0</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>654.0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>850.0</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>819.0</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>1351.0</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>1816.0</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>1011.0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>624.0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>571.0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>519.0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>556.0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>533.0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>521.0</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>538.0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>544.0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>536.0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>545.0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>679.0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>526.0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>514.0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>549.0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>543.0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>513.0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>537.0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>522.0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>489.0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>511.0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>556.0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>532.0</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>501.0</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>551.0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>555.0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>595.0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>564.0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>613.0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>601.0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>571.0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>624.0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>642.0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>656.0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>701.0</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>688.0</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>693.0</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>603.0</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>668.0</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>666.0</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>675.0</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>665.0</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>680.0</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>713.0</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>714.0</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>696.0</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>769.0</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>828.0</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>788.0</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>754.0</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>761.0</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>722.0</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>761.0</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>808.0</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>852.0</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>927.0</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>1076.0</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>1105.0</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>1128.0</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>1129.0</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>1518.0</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>1615.0</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>1794.0</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>1513.0</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>1610.0</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>1521.0</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>1386.0</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>1476.0</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>1577.0</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>1603.0</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>1704.0</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>1839.0</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>2003.0</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>2090.0</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>2334.0</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>2707.0</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>2874.0</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>3041.0</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>3650.0</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>4121.0</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>4077.0</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>4964.0</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>10078.0</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>22256.0</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>13051.0</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>11772.0</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>15357.0</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>14745.0</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>17018.0</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>22207.0</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>30209.0</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>41980.0</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>126867.0</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>240872.0</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>32182.0</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>14738.0</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>8410.0</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>5276.0</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>4009.0</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>3532.0</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>3063.0</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>2107.0</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>1713.0</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>1559.0</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>1431.0</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>1377.0</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>1452.0</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>1181.0</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>1149.0</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>1025.0</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>982.0</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>1008.0</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>905.0</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>878.0</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>760.0</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>763.0</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>808.0</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>858.0</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>824.0</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>764.0</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>749.0</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>681.0</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>769.0</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>718.0</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>699.0</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>693.0</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>752.0</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>670.0</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>620.0</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>647.0</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>746.0</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>662.0</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>735.0</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>830.0</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>771.0</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>701.0</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>755.0</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>741.0</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>623.0</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>602.0</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>631.0</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>593.0</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>592.0</c:v>
+                  <c:v>115.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$366</c:f>
+              <c:f>Sheet1!$BF$2:$BF$84</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="365"/>
-                <c:pt idx="0">
-                  <c:v>40544.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40545.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40546.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40547.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40548.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40549.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40550.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40551.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40552.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40553.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40554.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40555.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40556.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40557.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40558.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40559.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>40560.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>40561.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40562.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40563.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>40564.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>40565.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>40566.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>40567.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40568.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>40569.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>40570.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>40571.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>40572.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>40573.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>40574.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>40575.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>40576.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>40577.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>40578.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>40579.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>40580.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>40581.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40582.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40583.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40584.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>40585.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>40586.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>40587.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>40588.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>40589.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>40590.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>40591.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>40592.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>40593.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>40594.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>40595.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>40596.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>40597.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>40598.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>40599.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>40600.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>40601.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>40602.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>40603.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>40604.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>40605.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>40606.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>40607.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>40608.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>40609.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>40610.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>40611.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>40612.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>40613.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>40614.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>40615.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>40616.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>40617.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>40618.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>40619.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>40620.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>40621.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>40622.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>40623.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>40624.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>40625.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>40626.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>40627.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>40628.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>40629.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>40630.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>40631.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>40632.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>40633.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>40634.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>40635.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>40636.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>40637.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>40638.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>40639.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>40640.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>40641.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>40642.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>40643.0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>40644.0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>40645.0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>40646.0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>40647.0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>40648.0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>40649.0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>40650.0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>40651.0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>40652.0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>40653.0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>40654.0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>40655.0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>40656.0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>40657.0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>40658.0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>40659.0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>40660.0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>40661.0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>40662.0</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>40663.0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>40664.0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>40665.0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>40666.0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>40667.0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>40668.0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>40669.0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>40670.0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>40671.0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>40672.0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>40673.0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>40674.0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>40675.0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>40676.0</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>40677.0</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>40678.0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>40679.0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>40680.0</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>40681.0</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>40682.0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>40683.0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>40684.0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>40685.0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>40686.0</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>40687.0</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>40688.0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>40689.0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>40690.0</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>40691.0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>40692.0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>40693.0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>40694.0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>40695.0</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>40696.0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>40697.0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>40698.0</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>40699.0</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>40700.0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>40701.0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>40702.0</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>40703.0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>40704.0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>40705.0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>40706.0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>40707.0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>40708.0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>40709.0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>40710.0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>40711.0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>40712.0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>40713.0</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>40714.0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>40715.0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>40716.0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>40717.0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>40718.0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>40719.0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>40720.0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>40721.0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>40722.0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>40723.0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>40724.0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>40725.0</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>40726.0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>40727.0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>40728.0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>40729.0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>40730.0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>40731.0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>40732.0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>40733.0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>40734.0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>40735.0</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>40736.0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>40737.0</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>40738.0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>40739.0</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>40740.0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>40741.0</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>40742.0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>40743.0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>40744.0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>40745.0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>40746.0</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>40747.0</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>40748.0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>40749.0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>40750.0</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>40751.0</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>40752.0</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>40753.0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>40754.0</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>40755.0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>40756.0</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>40757.0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>40758.0</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>40759.0</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>40760.0</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>40761.0</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>40762.0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>40763.0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>40764.0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>40765.0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>40766.0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>40767.0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>40768.0</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>40769.0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>40770.0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>40771.0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>40772.0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>40773.0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>40774.0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>40775.0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>40776.0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>40777.0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>40778.0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>40779.0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>40780.0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>40781.0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>40782.0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>40783.0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>40784.0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>40785.0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>40786.0</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>40787.0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>40788.0</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>40789.0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>40790.0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>40791.0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>40792.0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>40793.0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>40794.0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>40795.0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>40796.0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>40797.0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>40798.0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>40799.0</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>40800.0</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>40801.0</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>40802.0</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>40803.0</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>40804.0</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>40805.0</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>40806.0</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>40807.0</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>40808.0</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>40809.0</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>40810.0</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>40811.0</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>40812.0</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>40813.0</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>40814.0</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>40815.0</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>40816.0</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>40817.0</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>40818.0</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>40819.0</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>40820.0</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>40821.0</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>40822.0</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>40823.0</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>40824.0</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>40825.0</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>40826.0</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>40827.0</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>40828.0</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>40829.0</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>40830.0</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>40831.0</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>40832.0</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>40833.0</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>40834.0</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>40835.0</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>40836.0</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>40837.0</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>40838.0</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>40839.0</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>40840.0</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>40841.0</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>40842.0</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>40843.0</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>40844.0</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>40845.0</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>40846.0</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>40847.0</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>40848.0</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>40849.0</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>40850.0</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>40851.0</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>40852.0</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>40853.0</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>40854.0</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>40855.0</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>40856.0</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>40857.0</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>40858.0</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>40859.0</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>40860.0</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>40861.0</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>40862.0</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>40863.0</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>40864.0</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>40865.0</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>40866.0</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>40867.0</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>40868.0</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>40869.0</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>40870.0</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>40871.0</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>40872.0</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>40873.0</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>40874.0</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>40875.0</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>40876.0</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>40877.0</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>40878.0</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>40879.0</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>40880.0</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>40881.0</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>40882.0</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>40883.0</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>40884.0</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>40885.0</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>40886.0</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>40887.0</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>40888.0</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>40889.0</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>40890.0</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>40891.0</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>40892.0</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>40893.0</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>40894.0</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>40895.0</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>40896.0</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>40897.0</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>40898.0</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>40899.0</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>40900.0</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>40901.0</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>40902.0</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>40903.0</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>40904.0</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>40905.0</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>40906.0</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>40907.0</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>40908.0</c:v>
-                </c:pt>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="83"/>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$366</c:f>
+              <c:f>Sheet1!$BH$2:$BH$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="365"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>1.966666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -4600,13 +1559,13 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>5.833333333333332</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -4615,1077 +1574,212 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>44.93333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>611.5666666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>183.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>88.03333333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>82.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>86.36666666666665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>91.53333333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>88.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>89.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>120.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>136.1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>255.9666666666667</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>947.1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>4187.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>559.4666666666667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>247.1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>169.6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>206.8666666666667</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>193.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>197.8666666666667</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>193.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>211.3666666666667</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>310.3666666666666</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>512.9333333333332</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>3458.366666666667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0</c:v>
+                  <c:v>18719.3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0</c:v>
+                  <c:v>807.0666666666667</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>328.7</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0</c:v>
+                  <c:v>259.7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0</c:v>
+                  <c:v>290.8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0</c:v>
+                  <c:v>278.8666666666666</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>291.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0</c:v>
+                  <c:v>284.6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>59.0</c:v>
+                  <c:v>312.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0</c:v>
+                  <c:v>476.0666666666666</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0</c:v>
+                  <c:v>966.1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>5155.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0</c:v>
+                  <c:v>26738.3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.0</c:v>
+                  <c:v>1327.966666666667</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0</c:v>
+                  <c:v>537.3666666666667</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>307.4666666666666</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0</c:v>
+                  <c:v>418.4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>367.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0</c:v>
+                  <c:v>403.9</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0</c:v>
+                  <c:v>408.7666666666666</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0</c:v>
+                  <c:v>442.7333333333333</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0</c:v>
+                  <c:v>607.1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.0</c:v>
+                  <c:v>1120.966666666667</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0</c:v>
+                  <c:v>5439.6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>50311.03333333333</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.0</c:v>
+                  <c:v>1675.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0</c:v>
+                  <c:v>637.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0</c:v>
+                  <c:v>369.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0</c:v>
+                  <c:v>464.1333333333333</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0</c:v>
+                  <c:v>435.1666666666666</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.0</c:v>
+                  <c:v>432.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.0</c:v>
+                  <c:v>445.5666666666666</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>410.4333333333333</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>591.9333333333332</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0</c:v>
+                  <c:v>1031.066666666667</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0</c:v>
+                  <c:v>4829.1</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0</c:v>
+                  <c:v>43302.6</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.0</c:v>
+                  <c:v>1697.633333333333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>672.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0</c:v>
+                  <c:v>562.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0</c:v>
+                  <c:v>501.5333333333334</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0</c:v>
+                  <c:v>382.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>769.0</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>844.0</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>838.0</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>727.0</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>720.0</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>1033.0</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>1051.0</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>1129.0</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>1415.0</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>1708.0</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>1032.0</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>734.0</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>868.0</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>566.0</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>482.0</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>381.0</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>389.0</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>332.0</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>371.0</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>352.0</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>318.0</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>279.0</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>206.0</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>202.0</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>254.0</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>250.0</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>249.0</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>266.0</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>253.0</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>165.0</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>237.0</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>240.0</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>247.0</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>277.0</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>242.0</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>233.0</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>171.0</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>251.0</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>380.0</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>248.0</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>184.0</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>158.0</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>159.0</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>161.0</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>149.0</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>167.0</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>135.0</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>135.0</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>140.0</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>80.0</c:v>
+                  <c:v>141.3666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5695,19 +1789,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-954582208"/>
-        <c:axId val="-854320592"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="-954582208"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1142774864"/>
+        <c:axId val="-1175123696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1142774864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -5743,14 +1838,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-854320592"/>
+        <c:crossAx val="-1175123696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="-854320592"/>
+        <c:axId val="-1175123696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5800,7 +1896,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-954582208"/>
+        <c:crossAx val="-1142774864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7010,7 +3106,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7118,11 +3214,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7133,11 +3224,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7169,9 +3255,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7589,20 +3672,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>340</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>175843</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>132862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>371</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>58613</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>78154</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7909,8 +3992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH2323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C366"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="13" zoomScaleNormal="65" zoomScalePageLayoutView="65" workbookViewId="0">
+      <selection activeCell="BF1" sqref="BF1:BH84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
